--- a/demo/christmas-markt.xlsx
+++ b/demo/christmas-markt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbelyh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\svgpublish-demo\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3895B7-E24D-4E14-BB17-CC97C8826D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C17BD8-6A97-4288-9DD4-655E1C409258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="3405" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ACDF0D08-AA98-4DF7-97AB-AEC67025FC59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{ACDF0D08-AA98-4DF7-97AB-AEC67025FC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>Innere Stadt</t>
   </si>
@@ -544,6 +544,30 @@
   </si>
   <si>
     <t>Kompiziert, sehe website</t>
+  </si>
+  <si>
+    <t>Mittelalterlicher Adventmarkt</t>
+  </si>
+  <si>
+    <t>https://www.hgm.at/museum/aktuell/veranstaltungskalender/2022/mittelalterlicher-adventmarkt</t>
+  </si>
+  <si>
+    <t>https://www.hgm.at/_Resources/Persistent/7/a/6/7/7a67fcb6921c399dafd8f8fe9e31c9b23fd048ee/IK%20Adventmarkt_web-827x487-300x177.jpg</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/B51CQzyxCfemHxEy8</t>
+  </si>
+  <si>
+    <t>01.12 - 04.12</t>
+  </si>
+  <si>
+    <t>Do: 13 - 22 Uhr, 
+Fr: 9 - 22 Uhr,
+Sa:  9 - 22 Uhr,
+So:  9 - 20 Uhr</t>
+  </si>
+  <si>
+    <t>Museum of Military History</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B716503D-9B68-425F-8322-9B138FA878D9}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1806,6 +1830,32 @@
         <v>127</v>
       </c>
       <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1855,8 +1905,11 @@
     <hyperlink ref="C17" r:id="rId44" xr:uid="{D9998054-2CDC-4C75-A51D-79C4E9F0E6A8}"/>
     <hyperlink ref="C18" r:id="rId45" xr:uid="{0408C4FB-B2A3-4C5E-9179-ADD44528DA9C}"/>
     <hyperlink ref="C19" r:id="rId46" xr:uid="{C7DEBD07-A857-409D-B77D-7AE2F1C03363}"/>
+    <hyperlink ref="H20" r:id="rId47" xr:uid="{32541ABA-009E-4397-8C0B-5CB6945192EF}"/>
+    <hyperlink ref="C20" r:id="rId48" xr:uid="{3D996DF9-5BCC-4181-B28C-10E7F2AADE92}"/>
+    <hyperlink ref="D20" r:id="rId49" xr:uid="{CBCF5D9A-EE63-4F55-91C4-788C63DF1A36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId50"/>
 </worksheet>
 </file>